--- a/WebRoot/static/template/budget/銷售收入預測表_backlog.xlsx
+++ b/WebRoot/static/template/budget/銷售收入預測表_backlog.xlsx
@@ -103,9 +103,6 @@
     <t>產品系列</t>
   </si>
   <si>
-    <t>机种</t>
-  </si>
-  <si>
     <t xml:space="preserve">PM </t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>交易貨幣（美元）</t>
+  </si>
+  <si>
+    <t>機種</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
       <pane xSplit="13" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -672,13 +672,13 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
       <c r="N2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
@@ -785,19 +785,19 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="N3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -823,7 +823,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
